--- a/BackTest/2020-01-13 BackTest BCD.xlsx
+++ b/BackTest/2020-01-13 BackTest BCD.xlsx
@@ -3286,14 +3286,20 @@
         <v>420.525</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>410.1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3321,18 +3327,18 @@
         <v>420.1650000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>410.4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>410.4</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3360,20 +3366,16 @@
         <v>419.8183333333334</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>415.2</v>
-      </c>
-      <c r="K85" t="n">
-        <v>410.4</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3409,12 +3411,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>410.4</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3444,18 +3444,18 @@
         <v>419.1350000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>411</v>
-      </c>
-      <c r="K87" t="n">
-        <v>411</v>
-      </c>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3483,20 +3483,16 @@
         <v>418.8666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>412</v>
-      </c>
-      <c r="K88" t="n">
-        <v>411</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -3526,20 +3522,16 @@
         <v>418.65</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>413.9</v>
-      </c>
-      <c r="K89" t="n">
-        <v>411</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3569,20 +3561,16 @@
         <v>418.4483333333334</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>413</v>
-      </c>
-      <c r="K90" t="n">
-        <v>411</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -3612,17 +3600,13 @@
         <v>418.2416666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>415.8</v>
-      </c>
-      <c r="K91" t="n">
-        <v>411</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,17 +3639,13 @@
         <v>417.985</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>415</v>
-      </c>
-      <c r="K92" t="n">
-        <v>411</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,17 +3678,13 @@
         <v>417.7283333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>415</v>
-      </c>
-      <c r="K93" t="n">
-        <v>411</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,17 +3717,13 @@
         <v>417.5016666666666</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>414.7</v>
-      </c>
-      <c r="K94" t="n">
-        <v>411</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,17 +3756,13 @@
         <v>417.345</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>416.1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>411</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3827,17 +3795,13 @@
         <v>417.2316666666666</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>415</v>
-      </c>
-      <c r="K96" t="n">
-        <v>411</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,17 +3834,13 @@
         <v>416.985</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>413</v>
-      </c>
-      <c r="K97" t="n">
-        <v>411</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,17 +3873,13 @@
         <v>416.8</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>414</v>
-      </c>
-      <c r="K98" t="n">
-        <v>411</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,17 +3912,13 @@
         <v>416.65</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>413</v>
-      </c>
-      <c r="K99" t="n">
-        <v>411</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3999,17 +3951,13 @@
         <v>416.5316666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>414</v>
-      </c>
-      <c r="K100" t="n">
-        <v>411</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4042,17 +3990,13 @@
         <v>416.4466666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>414.9</v>
-      </c>
-      <c r="K101" t="n">
-        <v>411</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,17 +4029,13 @@
         <v>416.3950000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>414.9</v>
-      </c>
-      <c r="K102" t="n">
-        <v>411</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4128,17 +4068,13 @@
         <v>416.2650000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>415</v>
-      </c>
-      <c r="K103" t="n">
-        <v>411</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4171,17 +4107,13 @@
         <v>416.1083333333335</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>413.4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>411</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4214,17 +4146,13 @@
         <v>415.9650000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>413.4</v>
-      </c>
-      <c r="K105" t="n">
-        <v>411</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4257,17 +4185,13 @@
         <v>415.8150000000002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>413</v>
-      </c>
-      <c r="K106" t="n">
-        <v>411</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4300,17 +4224,13 @@
         <v>415.6816666666668</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>413</v>
-      </c>
-      <c r="K107" t="n">
-        <v>411</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4343,17 +4263,13 @@
         <v>415.5983333333335</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>413</v>
-      </c>
-      <c r="K108" t="n">
-        <v>411</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,17 +4302,13 @@
         <v>415.4483333333335</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>413</v>
-      </c>
-      <c r="K109" t="n">
-        <v>411</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4429,17 +4341,13 @@
         <v>415.3316666666668</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>415</v>
-      </c>
-      <c r="K110" t="n">
-        <v>411</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,17 +4380,13 @@
         <v>415.1816666666668</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>413</v>
-      </c>
-      <c r="K111" t="n">
-        <v>411</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4515,17 +4419,13 @@
         <v>415.1133333333335</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>414.9</v>
-      </c>
-      <c r="K112" t="n">
-        <v>411</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4558,17 +4458,13 @@
         <v>414.9950000000002</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>414.9</v>
-      </c>
-      <c r="K113" t="n">
-        <v>411</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,17 +4497,13 @@
         <v>414.8500000000002</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>413.3</v>
-      </c>
-      <c r="K114" t="n">
-        <v>411</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4644,17 +4536,13 @@
         <v>414.7150000000002</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K115" t="n">
-        <v>411</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4687,17 +4575,13 @@
         <v>414.5783333333335</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K116" t="n">
-        <v>411</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4730,17 +4614,13 @@
         <v>414.5200000000002</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K117" t="n">
-        <v>411</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4773,17 +4653,13 @@
         <v>414.4000000000002</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>415</v>
-      </c>
-      <c r="K118" t="n">
-        <v>411</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,17 +4692,13 @@
         <v>414.2633333333335</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K119" t="n">
-        <v>411</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4859,17 +4731,13 @@
         <v>414.1433333333335</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K120" t="n">
-        <v>411</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4902,17 +4770,13 @@
         <v>414.0883333333335</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K121" t="n">
-        <v>411</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,17 +4809,13 @@
         <v>414.0716666666668</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>415</v>
-      </c>
-      <c r="K122" t="n">
-        <v>411</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4988,17 +4848,13 @@
         <v>413.9716666666669</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>415</v>
-      </c>
-      <c r="K123" t="n">
-        <v>411</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5031,17 +4887,13 @@
         <v>413.8716666666668</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>415</v>
-      </c>
-      <c r="K124" t="n">
-        <v>411</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5074,17 +4926,13 @@
         <v>413.8516666666668</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K125" t="n">
-        <v>411</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5117,17 +4965,13 @@
         <v>413.8316666666668</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K126" t="n">
-        <v>411</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,17 +5004,13 @@
         <v>413.7483333333335</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K127" t="n">
-        <v>411</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5203,17 +5043,13 @@
         <v>413.7250000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>414</v>
-      </c>
-      <c r="K128" t="n">
-        <v>411</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5246,17 +5082,13 @@
         <v>413.6850000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>414</v>
-      </c>
-      <c r="K129" t="n">
-        <v>411</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,17 +5121,13 @@
         <v>413.6350000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>414.8</v>
-      </c>
-      <c r="K130" t="n">
-        <v>411</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,17 +5160,13 @@
         <v>413.6016666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>416.5</v>
-      </c>
-      <c r="K131" t="n">
-        <v>411</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,17 +5199,13 @@
         <v>413.5950000000001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>416</v>
-      </c>
-      <c r="K132" t="n">
-        <v>411</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,17 +5238,13 @@
         <v>413.6783333333334</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>416.7</v>
-      </c>
-      <c r="K133" t="n">
-        <v>411</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5461,17 +5277,13 @@
         <v>413.7700000000001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>416.2</v>
-      </c>
-      <c r="K134" t="n">
-        <v>411</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5504,17 +5316,13 @@
         <v>413.7200000000001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>416</v>
-      </c>
-      <c r="K135" t="n">
-        <v>411</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5547,17 +5355,13 @@
         <v>413.7816666666668</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>416.7</v>
-      </c>
-      <c r="K136" t="n">
-        <v>411</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,17 +5394,13 @@
         <v>413.8700000000001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>416</v>
-      </c>
-      <c r="K137" t="n">
-        <v>411</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5633,17 +5433,13 @@
         <v>413.9516666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="K138" t="n">
-        <v>411</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5676,17 +5472,13 @@
         <v>414.0383333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>418.7</v>
-      </c>
-      <c r="K139" t="n">
-        <v>411</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5725,9 +5517,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>411</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5766,9 +5556,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>411</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5807,9 +5595,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>411</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5848,9 +5634,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>411</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5889,9 +5673,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>411</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5930,9 +5712,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>411</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,9 +5751,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>411</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6012,9 +5790,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>411</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6053,9 +5829,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>411</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6094,9 +5868,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>411</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6135,9 +5907,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>411</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6176,9 +5946,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>411</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6217,9 +5985,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>411</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6252,17 +6018,13 @@
         <v>415.0016666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>416.6</v>
-      </c>
-      <c r="K153" t="n">
-        <v>411</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,9 +6063,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>411</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6342,9 +6102,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>411</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,9 +6141,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>411</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,9 +6180,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>411</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6465,9 +6219,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>411</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6506,9 +6258,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>411</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,17 +6291,13 @@
         <v>415.155</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>414.5</v>
-      </c>
-      <c r="K160" t="n">
-        <v>411</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6584,17 +6330,13 @@
         <v>415.1483333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>414.5</v>
-      </c>
-      <c r="K161" t="n">
-        <v>411</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6627,17 +6369,13 @@
         <v>415.1416666666666</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>414.5</v>
-      </c>
-      <c r="K162" t="n">
-        <v>411</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,17 +6408,13 @@
         <v>415.1499999999999</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>415.5</v>
-      </c>
-      <c r="K163" t="n">
-        <v>411</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6713,17 +6447,13 @@
         <v>415.1849999999999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>415.5</v>
-      </c>
-      <c r="K164" t="n">
-        <v>411</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6756,17 +6486,13 @@
         <v>415.2199999999999</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>415.5</v>
-      </c>
-      <c r="K165" t="n">
-        <v>411</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,17 +6525,13 @@
         <v>415.2699999999999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>415.5</v>
-      </c>
-      <c r="K166" t="n">
-        <v>411</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6842,17 +6564,13 @@
         <v>415.3199999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>416</v>
-      </c>
-      <c r="K167" t="n">
-        <v>411</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,17 +6603,13 @@
         <v>415.3783333333332</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>416</v>
-      </c>
-      <c r="K168" t="n">
-        <v>411</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,17 +6642,13 @@
         <v>415.4216666666665</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>415.6</v>
-      </c>
-      <c r="K169" t="n">
-        <v>411</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6971,17 +6681,13 @@
         <v>415.4316666666665</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>415.6</v>
-      </c>
-      <c r="K170" t="n">
-        <v>411</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,17 +6720,13 @@
         <v>415.5149999999998</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>417</v>
-      </c>
-      <c r="K171" t="n">
-        <v>411</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7057,17 +6759,13 @@
         <v>415.5666666666665</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>418</v>
-      </c>
-      <c r="K172" t="n">
-        <v>411</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7106,9 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>411</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7147,9 +6843,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>411</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7188,9 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>411</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7229,9 +6921,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>411</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7270,9 +6960,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>411</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7311,9 +6999,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>411</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7352,9 +7038,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>411</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7393,9 +7077,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>411</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7434,9 +7116,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>411</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,9 +7155,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>411</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7516,9 +7194,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>411</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,9 +7233,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>411</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7598,9 +7272,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>411</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7639,9 +7311,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>411</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7680,9 +7350,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>411</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7721,9 +7389,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>411</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,9 +7428,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>411</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7803,9 +7467,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>411</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,20 +7503,16 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>411</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7882,17 +7540,11 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>411</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7923,19 +7575,13 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>411</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>1.024197080291971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -7964,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -7999,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -8069,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -8104,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -12686,13 +12332,17 @@
         <v>422.5299999999999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="K329" t="n">
+        <v>418.8</v>
+      </c>
       <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
@@ -12727,8 +12377,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12762,8 +12418,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12797,8 +12459,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12832,8 +12500,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12867,8 +12541,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12902,8 +12582,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12937,8 +12623,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12972,8 +12664,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13007,8 +12705,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13042,8 +12746,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13077,8 +12787,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13112,8 +12828,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13147,8 +12869,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13182,8 +12910,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13217,8 +12951,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13252,8 +12992,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13287,8 +13033,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13322,8 +13074,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +13115,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13392,8 +13156,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13427,8 +13197,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13462,8 +13238,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13497,8 +13279,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13532,8 +13320,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13567,8 +13361,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13602,8 +13402,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13637,8 +13443,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13672,8 +13484,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13707,8 +13525,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13742,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13777,8 +13607,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13812,8 +13648,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13847,8 +13689,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13882,8 +13730,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13917,8 +13771,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13952,8 +13812,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13987,8 +13853,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14022,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14057,8 +13935,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14092,8 +13976,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14127,8 +14017,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14162,8 +14058,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14197,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14232,8 +14140,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14267,8 +14181,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14302,8 +14222,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14337,8 +14263,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14372,8 +14304,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14407,8 +14345,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14442,8 +14386,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14477,8 +14427,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14512,8 +14468,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14547,8 +14509,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14582,8 +14550,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14617,8 +14591,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14652,8 +14632,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14687,8 +14673,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14722,8 +14714,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest BCD.xlsx
+++ b/BackTest/2020-01-13 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-24054.29470886</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-28473.63100886</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-28574.62090886</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-25560.64760886</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-25443.57020886</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-26438.24920886</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-25911.04920886</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-24440.00450886</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-24440.00450886</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-24530.00450886</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-24412.89250886</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-30795.26910886</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-30264.88620886</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-30262.88620886</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-30787.40080885999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-37268.04380886</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-37122.32770886</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-37122.32770886</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-37313.02770886</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-36674.77620886</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-36674.77620886</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-36674.77620886</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-37083.02590886</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-37672.79260886</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-39882.96130886</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-57789.95453179</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-58164.84783179</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-57894.29133179</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-58285.59643179</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-57881.69263179</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-56377.39333179</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-56377.39333179</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-56382.39333179</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-56382.39333179</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-58583.14773179</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-58622.64773179</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-57622.64773179</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-57653.28613179</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-56954.99813179</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-56954.99813179</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-56957.56673179</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-57997.56673179</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-76997.56673178999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-72100.35193178999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-72100.35193178999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-73313.64653178999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-73313.64653178999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-78521.88203178998</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-85214.93263178998</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-85213.73263178999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-85213.73263178999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-86582.45573178999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-86582.45573178999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-91026.55003178999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-92020.18903178998</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-92018.19003178999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-92018.19003178999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-130504.09776898</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-130504.09776898</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-130581.09776898</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-136402.11046898</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-136202.11046898</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-136288.11046898</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-136288.11046898</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-136327.11046898</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-136325.91046898</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-136855.37806898</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-136855.37806898</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-136853.37806898</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-139677.82756898</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-125580.57286331</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-127834.27286331</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-127274.27286331</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-127241.27286331</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-126238.58996331</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-125722.82496331</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-139561.63166331</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-139909.17636331</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-137534.17636331</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-138377.45686331</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-140160.59456331</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-131257.97536331</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-131257.97536331</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-132239.22146331</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-138500.71502143</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-136120.63288983</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-153902.29908983</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14476,17 +14476,11 @@
         <v>-187411.2179236401</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14515,17 +14509,11 @@
         <v>-188035.4698236401</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14554,17 +14542,11 @@
         <v>-188035.4698236401</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>415.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14593,17 +14575,11 @@
         <v>-188514.1698236401</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>415.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14632,17 +14608,11 @@
         <v>-188043.5370236401</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>415.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14679,7 +14649,7 @@
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L432" t="n">
@@ -14932,11 +14902,9 @@
         <v>-200443.1722236401</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -14971,11 +14939,9 @@
         <v>-200443.1722236401</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15088,11 +15054,9 @@
         <v>-191132.5544236401</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>421.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15349,11 +15313,9 @@
         <v>-191339.8218236401</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15388,11 +15350,9 @@
         <v>-192642.0613236401</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>416.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15427,11 +15387,9 @@
         <v>-192642.0613236401</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>416.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15583,11 +15541,9 @@
         <v>-196325.9958236401</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>414.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15600,6 +15556,6 @@
       <c r="M456" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BCD.xlsx
+++ b/BackTest/2020-01-13 BackTest BCD.xlsx
@@ -913,7 +913,7 @@
         <v>-26438.24920886</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-25911.04920886</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-24440.00450886</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-24440.00450886</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-24530.00450886</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-24530.00450886</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-24412.89250886</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-25073.57550886</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-25073.57550886</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-30795.26910886</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-30264.88620886</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-30787.40080885999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-30787.40080885999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-30947.87510886</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-37672.79260886</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-58164.84783179</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-57881.69263179</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-56377.39333179</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-56377.39333179</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-56382.39333179</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-56382.39333179</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-58583.14773179</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-58622.64773179</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-57653.28613179</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-56954.99813179</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-56954.99813179</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-56957.56673179</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-57997.56673179</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-76997.56673178999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-130504.09776898</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-130504.09776898</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-130581.09776898</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-136402.11046898</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-136202.11046898</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-136288.11046898</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-136288.11046898</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-136327.11046898</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-136325.91046898</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-136855.37806898</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-136855.37806898</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-136853.37806898</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-139677.82756898</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-125580.57286331</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-127834.27286331</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-127274.27286331</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-127241.27286331</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-126238.58996331</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-125722.82496331</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-139561.63166331</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-139909.17636331</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-137534.17636331</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-138377.45686331</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-140160.59456331</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-131257.97536331</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-131257.97536331</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-132239.22146331</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-138500.71502143</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-136120.63288983</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-153902.29908983</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14476,11 +14476,17 @@
         <v>-187411.2179236401</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>416</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14515,17 @@
         <v>-188035.4698236401</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>416</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14554,17 @@
         <v>-188035.4698236401</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>415.8</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +14593,17 @@
         <v>-188514.1698236401</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>415.8</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14632,17 @@
         <v>-188043.5370236401</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>415.5</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14649,7 +14679,7 @@
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L432" t="n">
@@ -14902,9 +14932,11 @@
         <v>-200443.1722236401</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>414</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -14939,9 +14971,11 @@
         <v>-200443.1722236401</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>414</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15015,11 +15049,9 @@
         <v>-190659.5544236401</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>417.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15350,9 +15382,11 @@
         <v>-192642.0613236401</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>416.2</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15387,9 +15421,11 @@
         <v>-192642.0613236401</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>416.1</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15541,9 +15577,11 @@
         <v>-196325.9958236401</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>414.1</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
